--- a/data/trans_camb/IP42B-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP42B-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -601,22 +601,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>10,09</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-19,9</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>3,96</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>-9,75</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>10,09</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-19,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 23,94</t>
+          <t>-13,26; 31,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-29,12; 8,27</t>
+          <t>-39,91; -2,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 33,95</t>
+          <t>-16,03; 21,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-41,56; -1,48</t>
+          <t>-31,6; 6,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 20,95</t>
+          <t>-10,53; 20,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,56; -1,77</t>
+          <t>-28,73; -2,53</t>
         </is>
       </c>
     </row>
@@ -677,22 +677,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>31,54%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-62,18%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>18,35%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>-45,15%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>31,54%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-62,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-51,42; 269,47</t>
+          <t>-30,58; 158,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-85,62; 103,44</t>
+          <t>-88,95; -4,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-26,46; 194,99</t>
+          <t>-53,66; 190,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-90,89; 1,47</t>
+          <t>-87,06; 93,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,96; 119,61</t>
+          <t>-29,21; 109,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,74; -4,53</t>
+          <t>-80,0; -7,92</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>7,84</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4,22</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>7,47</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>1,29</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,84</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 13,67</t>
+          <t>2,72; 13,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 5,92</t>
+          <t>-0,37; 9,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 13,35</t>
+          <t>2,24; 13,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 9,04</t>
+          <t>-3,71; 5,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,39; 11,65</t>
+          <t>3,65; 11,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 5,83</t>
+          <t>-0,99; 5,83</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>217,83%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>117,18%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>137,82%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>23,8%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>217,83%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>117,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,64; 466,48</t>
+          <t>29,52; 979,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-49,04; 189,46</t>
+          <t>-19,73; 630,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,14; 904,79</t>
+          <t>18,7; 464,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 787,76</t>
+          <t>-47,81; 197,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,47; 440,7</t>
+          <t>52,86; 402,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 214,5</t>
+          <t>-22,16; 194,12</t>
         </is>
       </c>
     </row>
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-3,49</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,66</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>2,62</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,68</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-3,49</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 11,24</t>
+          <t>-20,34; 13,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 13,35</t>
+          <t>-21,28; 8,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 13,91</t>
+          <t>-9,13; 11,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,02; 8,42</t>
+          <t>-7,95; 11,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 9,04</t>
+          <t>-8,31; 8,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 7,67</t>
+          <t>-9,09; 7,31</t>
         </is>
       </c>
     </row>
@@ -989,22 +989,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-6,02%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-30,68%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>13,12%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>51,93%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-6,02%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-30,68%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 497,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-80,33; 320,2</t>
+          <t>-73,63; 301,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-71,83; 253,87</t>
+          <t>-74,58; 233,57</t>
         </is>
       </c>
     </row>
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>6,61</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-0,76</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>6,72</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>0,17</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>6,61</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-0,76</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 11,66</t>
+          <t>0,68; 12,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 3,79</t>
+          <t>-5,97; 3,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,74; 12,39</t>
+          <t>1,05; 12,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 4,68</t>
+          <t>-4,21; 4,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,46; 10,55</t>
+          <t>2,55; 10,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 3,04</t>
+          <t>-3,99; 3,09</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>71,93%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-8,26%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>91,85%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>2,37%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>71,93%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-8,26%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9,76; 226,92</t>
+          <t>3,9; 202,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-46,49; 75,52</t>
+          <t>-50,08; 61,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,2; 202,1</t>
+          <t>5,6; 221,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-47,13; 76,58</t>
+          <t>-43,68; 85,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>23,26; 167,61</t>
+          <t>20,3; 168,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,29; 51,88</t>
+          <t>-38,31; 49,73</t>
         </is>
       </c>
     </row>
